--- a/data/documentation/spreadsheets/done/cheeriojs@cheerio.xlsx
+++ b/data/documentation/spreadsheets/done/cheeriojs@cheerio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E915572-AAA8-4D9F-9E59-34851A8B7CA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B5C698-58A0-4033-92F5-EDE199A16522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -430,18 +430,18 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.3984375" customWidth="1"/>
-    <col min="2" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="26" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="36.37890625" customWidth="1"/>
+    <col min="2" max="7" width="22.47265625" customWidth="1"/>
+    <col min="8" max="26" width="7.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,12 +461,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -474,7 +474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -482,7 +482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -490,72 +490,57 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -563,7 +548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -571,7 +556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -579,7 +564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -587,7 +572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -595,7 +580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -603,7 +588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -611,7 +596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
